--- a/automated_blog_posts.xlsx
+++ b/automated_blog_posts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>meta_description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>blog_post</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>keyword</t>
         </is>
@@ -448,228 +458,251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**Title: Essential Digital Payment Solutions for Modern Businesses**
-**Meta Description:** Explore essential digital payment solutions that can transform your business transactions, boosting security, efficiency, and global reach.
-In today's fast-paced digital economy, the way we transact has transformed dramatically. Gone are the days of cash and checks; digital payment solutions have taken center stage, revolutionizing how consumers and businesses manage their finances. From contactless payments to mobile wallets, these innovations enhance convenience while driving efficiency and security in transactions. But what exactly are digital payment solutions, and how can they benefit your business? Let’s dive into this exciting realm of FinTech.
-## Understanding Digital Payment Solutions
-Digital payment solutions encompass a wide range of technologies that facilitate electronic transactions. These solutions allow consumers to make payments using their smartphones, computers, or other digital devices, eliminating the need for physical cash. 
-### Types of Digital Payment Solutions
-1. **Mobile Wallets**
-   - Mobile wallets like Apple Pay and Google Wallet enable users to store payment information on their devices. This allows for quick and secure transactions at various retailers.
-2. **Payment Gateways**
-   - Payment gateways serve as intermediaries between consumers and merchants, securely processing online payments. Examples include PayPal and Stripe.
-3. **Cryptocurrency Payments**
-   - The rise of cryptocurrencies like Bitcoin has introduced a new dimension to digital payments. Businesses can accept crypto payments, providing customers with more options.
-4. **Contactless Payments**
-   - NFC (Near Field Communication) technology allows users to make payments by simply tapping their cards or devices at a point of sale (POS).
-## The Benefits of Digital Payment Solutions
-Implementing digital payment solutions can provide numerous advantages for businesses. Here are some key benefits:
-### Enhanced Security
-Digital payment solutions often come with advanced security features such as encryption and tokenization. These measures significantly reduce the risk of fraud and data breaches.
-### Increased Efficiency
-By automating transactions, businesses can streamline their payment processes. This efficiency can lead to faster checkouts and improved customer satisfaction.
-### Global Reach
-Digital payment solutions break down geographical barriers. Businesses can easily reach international markets, allowing them to expand their customer base without the complexities of traditional banking.
-## Challenges of Implementing Digital Payment Solutions
-While the benefits are substantial, there are challenges that businesses must navigate when adopting digital payment solutions.
-### Regulatory Compliance
-Different countries have varying regulations regarding digital payments. It’s crucial for businesses to stay informed and compliant to avoid legal issues.
-### Technical Integration
-Integrating new payment systems with existing business operations can be complex. Businesses may need to invest in training and infrastructure to ensure a smooth transition.
-## Future Trends in Digital Payment Solutions
-The landscape of digital payments is continually evolving. Here are some trends to watch:
-### AI and Machine Learning
-Artificial Intelligence is poised to enhance fraud detection and personalize payment experiences. Machine learning algorithms can analyze transaction patterns and identify anomalies in real time.
-### Biometric Authentication
-As security becomes paramount, biometric payment methods—such as fingerprint and facial recognition—are gaining traction. These technologies offer an additional layer of security for digital transactions.
-### Blockchain Technology
-Blockchain is not just for cryptocurrencies. Its potential to provide secure and transparent transaction records is being explored across various industries, including finance.
+          <t># How Does Blockchain Technology Work? Benefits in Finance Explained</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unlock the secrets of blockchain technology and learn how it works. Discover the benefits of blockchain in finance and what is blockchain in Fin for your business.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Blockchain technology is revolutionizing the financial landscape, impacting various sectors from banking to supply chain management. As more businesses and individuals seek to harness the power of decentralized systems, understanding how blockchain technology works becomes crucial. In this post, we'll explore the intricacies of blockchain technology, delve into the transformative potential of smart contracts, and highlight the benefits of blockchain in finance.
+## Understanding Blockchain Technology
+### What is Blockchain in Finance?
+At its core, blockchain technology is a decentralized digital ledger that records transactions across multiple computers. This ensures that the data is transparent, secure, and immutable. Unlike traditional databases, where a single entity controls the information, blockchain distributes the data across a network. This distribution makes it nearly impossible to alter the data without consensus, showcasing how blockchain technology works in a practical setting.
+### Key Features of Blockchain
+1. **Decentralization**: Eliminates the need for a central authority, which reduces the risk of fraud and corruption.
+2. **Transparency**: All transactions are visible to participants, fostering trust among users.
+3. **Security**: Advanced cryptographic techniques protect data integrity and prevent unauthorized access.
+4. **Immutability**: Once recorded, transactions cannot be changed, ensuring a permanent and tamper-proof record.
+## The Power of Smart Contracts
+### What are Smart Contracts?
+Smart contracts are self-executing contracts with the terms of the agreement directly written into code. They run on blockchain networks, facilitating, verifying, and enforcing the negotiation or performance of a contract without the need for intermediaries. Understanding what is blockchain in finance includes recognizing the role of smart contracts in automating processes.
+### Benefits of Smart Contracts
+- **Efficiency**: Automates processes, reducing the time and costs associated with traditional contract execution.
+- **Accuracy**: Minimizes human error by executing transactions based on pre-defined conditions.
+- **Trust**: Since they are stored on a blockchain, smart contracts are transparent and cannot be altered.
+### Use Cases of Smart Contracts
+- **Financial Services**: Automating loan agreements and insurance claims showcases the benefits of blockchain in finance.
+- **Supply Chain Management**: Tracking goods and verifying authenticity.
+- **Real Estate**: Streamlining property transactions and ownership transfers.
+## Exploring Blockchain Resources
+### Educational Platforms
+To deepen your understanding of how blockchain technology works and the benefits of blockchain in finance, consider exploring the following resources:
+- **Online Courses**: Websites like Coursera, edX, and Udemy offer courses ranging from beginner to advanced levels.
+- **Podcasts**: Tune into blockchain-focused podcasts like "Unchained" and "The Bad Crypto Podcast" for insights from industry experts.
+- **Books**: Titles such as "Mastering Bitcoin" by Andreas Antonopoulos provide in-depth knowledge for those looking to dive deeper.
+### Community and Networking
+Engaging with the blockchain community can enhance your learning experience. Consider joining:
+- **Online Forums**: Platforms like Reddit and Stack Exchange have active discussions on blockchain topics.
+- **Meetups and Conferences**: Attend local meetups or international conferences to network with professionals and enthusiasts.
 ## Conclusion
-Digital payment solutions are reshaping the financial landscape, offering unprecedented convenience, security, and efficiency. While challenges exist, the benefits far outweigh them, making it essential for businesses to adapt to this digital shift. By staying informed about emerging trends and technologies, companies can position themselves for success in an increasingly digital world.
+Blockchain technology and smart contracts are reshaping the financial industry by enhancing security, efficiency, and transparency. Understanding how blockchain technology works and recognizing the benefits of blockchain in finance is essential for anyone looking to leverage its potential. 
 ### Actionable Takeaways
-- Evaluate your current payment processing systems and consider integrating digital payment solutions.
-- Prioritize security by adopting payment methods that utilize encryption and tokenization.
-- Stay updated on regulatory changes affecting digital payment solutions in your region.
-- Explore new technologies like AI and blockchain to enhance your payment processes.
-- Educate your team on the benefits and functionalities of digital payment solutions.
-Are you ready to transform your payment processes? Embrace the future of transactions with digital payment solutions and gain a competitive edge in the FinTech landscape. Start exploring your options today!</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>digital payment solutions</t>
+- **Educate Yourself**: Explore online courses and books to gain a solid foundation in blockchain technology.
+- **Engage with the Community**: Join forums and attend events to connect with other blockchain enthusiasts.
+- **Experiment with Smart Contracts**: Use platforms like Ethereum to create and deploy your own smart contracts.
+- **Stay Updated**: Follow industry news and trends to keep abreast of the latest developments in blockchain.
+Are you ready to dive into the world of blockchain technology? Start exploring today, and unlock the potential of this groundbreaking innovation! For more insights, tips, and resources, subscribe to our newsletter and stay ahead in the FinTech revolution.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['how does blockchain technology work', 'benefits of blockchain in finance', 'what is blockchain in Fin']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**Title: Innovative Payments: The Future of Financial Transactions**
-**Meta Description:** Discover how innovative payments are reshaping financial transactions, from contactless solutions to cryptocurrencies. Explore the future of payments and their impact today.
-In today’s fast-paced digital world, the way we handle payments is undergoing a radical transformation. Gone are the days when cash and traditional credit cards dominated transactions. Instead, innovative payment solutions are emerging, reshaping how consumers and businesses interact financially. From contactless payments to cryptocurrencies, the FinTech landscape is buzzing with new possibilities. But what does this mean for you? Let’s dive into the world of innovative payments and explore the trends that are revolutionizing the financial ecosystem.
-## The Rise of Contactless Payments
-### Understanding Contactless Technology
-Contactless payments have surged in popularity, especially in the wake of the COVID-19 pandemic. This technology allows consumers to make transactions simply by tapping their cards or smartphones near a payment terminal.
-- **How It Works**: Contactless payments use Near Field Communication (NFC) technology, enabling secure communication between devices.
-- **Benefits**: Speed and convenience are the primary advantages, reducing wait times at checkout and minimizing physical contact.
-### Adoption Trends
-Businesses worldwide are adopting contactless payment solutions at an unprecedented rate. According to recent studies, the global contactless payment market is expected to grow significantly in the next few years.
-- **Consumer Preference**: A growing number of consumers prefer contactless options for their speed and ease of use.
-- **Merchant Investment**: Retailers are increasingly investing in NFC-enabled terminals to meet customer demand.
-## The Emergence of Digital Wallets
-### What Are Digital Wallets?
-Digital wallets, such as Apple Pay, Google Pay, and PayPal, are applications that store payment information securely and allow users to make transactions online or in-store.
-- **Convenience**: Users can link multiple payment methods and make purchases with a single tap or click.
-- **Security Features**: Digital wallets often come with advanced security features, including biometric authentication and tokenization.
-### The Impact on E-commerce
-As e-commerce continues to grow, digital wallets are becoming an essential tool for online shopping.
-- **Frictionless Experience**: They provide a seamless checkout experience, reducing cart abandonment rates.
-- **Loyalty Programs**: Many digital wallets integrate loyalty programs, encouraging repeat purchases.
-## Cryptocurrency and Blockchain Payments
-### The Role of Cryptocurrencies
-Cryptocurrencies like Bitcoin and Ethereum are gaining traction as alternative payment methods. They offer unique advantages, especially in cross-border transactions.
-- **Decentralization**: Cryptocurrencies operate on decentralized networks, reducing reliance on traditional banking systems.
-- **Lower Fees**: Transaction fees can be significantly lower than those associated with credit cards and wire transfers.
-### Blockchain Technology
-Blockchain technology underpins cryptocurrencies and offers additional benefits for payment processing.
-- **Transparency**: Every transaction is recorded on a public ledger, enhancing trust and accountability.
-- **Smart Contracts**: These self-executing contracts automate processes, reducing the need for intermediaries.
-## The Future of Payments: AI and Machine Learning
-### Enhancing Fraud Detection
-Artificial Intelligence (AI) and machine learning are revolutionizing payment security. These technologies analyze transaction patterns to detect and prevent fraud in real-time.
-- **Predictive Analytics**: By identifying anomalies, AI can flag suspicious transactions before they occur.
-- **Adaptive Learning**: Machine learning algorithms continuously improve their accuracy, adapting to new fraud tactics.
-### Personalization and Customer Experience
-AI also plays a significant role in personalizing the payment experience for consumers.
-- **Tailored Offers**: Businesses can use data insights to provide personalized promotions and discounts.
-- **Streamlined Processes**: AI-driven chatbots can assist customers during the payment process, enhancing user experience.
+          <t># Exploring Blockchain Technology: Smart Contracts and Resources for All</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unlock your future in blockchain technology with our guide on essential blockchain resources, services, and smart contracts for students and professionals.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>In recent years, blockchain technology has emerged as a transformative force in the financial sector and beyond. As its applications expand, so too does the demand for skilled professionals and innovative services. For blockchain students and enthusiasts, understanding the intricacies of blockchain services and the nature of blockchain work is crucial for navigating this rapidly evolving landscape. In this article, we’ll explore the key components of blockchain services, the types of work available in the field, and how students can position themselves for success.
+## Understanding Blockchain Services
+Blockchain services encompass a wide range of offerings that leverage the unique capabilities of blockchain technology. These services are designed to enhance security, transparency, and efficiency across various industries.
+### Types of Blockchain Services
+1. **Consulting Services**  
+   Many companies seek to implement blockchain solutions but lack the necessary expertise. Consulting firms provide guidance on strategy, implementation, and best practices.
+2. **Development Services**  
+   Custom blockchain development is a significant area where developers build tailored solutions for businesses. This includes creating smart contracts, decentralized applications (dApps), and private blockchains.
+3. **Integration Services**  
+   Integrating blockchain with existing systems is vital for many organizations. Integration services help businesses incorporate blockchain into their current workflows seamlessly.
+4. **Maintenance and Support**  
+   Once a blockchain solution is deployed, ongoing maintenance and support are necessary to ensure smooth operation. This includes troubleshooting, updates, and security audits.
+## The Nature of Blockchain Work
+Blockchain work is diverse and can vary significantly based on the specific role and industry. Understanding the different types of positions available is essential for those looking to enter the field.
+### Key Roles in Blockchain Work
+1. **Blockchain Developer**  
+   Developers are responsible for building and maintaining blockchain systems. This role requires strong programming skills and knowledge of blockchain protocols.
+2. **Blockchain Analyst**  
+   Analysts assess blockchain projects, evaluate their potential impact, and provide insights on market trends. This role often requires a blend of technical and business acumen.
+3. **Blockchain Project Manager**  
+   Project managers oversee blockchain initiatives, ensuring they are delivered on time and within budget. Strong organizational and communication skills are crucial in this role.
+4. **Blockchain Compliance Specialist**  
+   As regulations around blockchain evolve, compliance specialists ensure that projects adhere to legal requirements. This role is becoming increasingly important in the FinTech sector.
+## Preparing as a Blockchain Student
+For students interested in pursuing a career in blockchain, it’s essential to equip themselves with the right skills and knowledge. Here are some strategies to consider:
+### Building Relevant Skills
+1. **Technical Proficiency**  
+   Understanding programming languages such as Solidity, JavaScript, or Python is fundamental for technical roles.
+2. **Business Acumen**  
+   Knowledge of financial systems and business operations can set you apart, especially for roles that bridge technology and business.
+3. **Networking**  
+   Engaging with industry professionals through conferences, seminars, and online forums can provide valuable insights and opportunities.
+4. **Certifications**  
+   Consider pursuing certifications in blockchain technology to enhance your resume and demonstrate your commitment to the field.
 ## Conclusion
-Innovative payments are not just a trend; they represent a fundamental shift in how we conduct financial transactions. From contactless payments and digital wallets to cryptocurrencies and AI-driven security, the landscape is evolving rapidly. As these technologies continue to mature, they promise to enhance convenience, security, and efficiency for both consumers and businesses alike.
+Blockchain technology is reshaping industries and creating new opportunities for professionals and students alike. By understanding the various blockchain services, the nature of blockchain work, and how to prepare as a blockchain student, you can position yourself for a successful career in this exciting field. 
 ### Actionable Takeaways
-- **Embrace Contactless Payments**: Upgrade your payment systems to accept contactless transactions to meet consumer demand.
-- **Implement Digital Wallet Options**: Integrate digital wallets into your payment processes for a smoother customer experience.
-- **Explore Cryptocurrency Acceptance**: Consider accepting cryptocurrencies as a payment option to attract tech-savvy customers.
-- **Invest in AI for Security**: Utilize AI and machine learning to bolster fraud detection and enhance payment security.
-- **Stay Informed**: Keep abreast of emerging payment technologies to remain competitive in the FinTech space.
-Are you ready to embrace the future of payments? Join the conversation and explore how these innovations can transform your business. Subscribe to our newsletter for the latest insights in FinTech, and don’t miss out on the opportunity to stay ahead of the curve!</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>innovative payments</t>
+- Explore different types of blockchain services to identify areas of interest.
+- Research key roles in blockchain work to understand where your skills fit.
+- Focus on building both technical and business skills.
+- Network with industry professionals and seek mentorship opportunities.
+- Consider obtaining relevant certifications to enhance your qualifications.
+Are you ready to dive into the world of blockchain? Whether you’re a student eager to learn or a professional looking to pivot your career, now is the time to take action. Start by exploring blockchain courses, attending industry events, or connecting with blockchain communities online. The future of finance is unfolding, and it’s time to be part of it!
+---
+In this revised version, the keyword "blockchain technology" is used more effectively to optimize density, while "smart contracts" and "blockchain resources" have been integrated to enhance SEO performance. The language has been simplified for better readability, and long sentences have been broken up for clarity.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['blockchain technology', 'smart contracts', 'blockchain resources']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**Title: The Future of Payments: Exploring Innovations in Financial Transactions**
-Meta Description: Discover the future of payments in our comprehensive guide. Explore trends, technologies, and strategies shaping financial transactions today.
-In today’s fast-paced digital economy, the way we handle payments is evolving at an unprecedented rate. From contactless transactions to blockchain technology, the landscape of payment systems is reshaping how businesses and consumers interact. Whether you're a seasoned FinTech professional or a newcomer eager to understand the intricacies of payment solutions, this comprehensive guide will delve into the core components of payments, their trends, and their implications for the future.
-## Understanding Payment Systems
-### What Are Payment Systems?
-At its core, a payment system is a set of processes that facilitate the transfer of money between parties. This system encompasses various methods, including cash, credit cards, mobile payments, and cryptocurrencies. The efficiency and security of these payment systems are crucial for fostering trust and ensuring smooth transactions.
-### Types of Payment Methods
-1. **Traditional Payment Methods**
-   - **Cash**: The oldest form of payment, still widely used in many regions.
-   - **Checks**: Though declining, checks remain relevant for specific transactions.
-2. **Digital Payment Methods**
-   - **Credit and Debit Cards**: These cards are the most common digital payment tools, offering convenience and rewards.
-   - **E-Wallets**: Platforms like PayPal and Venmo allow users to store funds digitally and make quick transactions.
-3. **Emerging Payment Technologies**
-   - **Cryptocurrencies**: Bitcoin, Ethereum, and other digital currencies are gaining traction for their decentralized nature.
-   - **Contactless Payments**: NFC (Near Field Communication) technology enables tap-and-go transactions, enhancing user experience.
-## The Role of Payment Gateways
-### What Is a Payment Gateway?
-A payment gateway is a technology that captures and transfers payment data from the customer to the merchant and vice versa. It acts as a bridge between the customer and the payment processor, ensuring secure transactions.
-### Key Features of Payment Gateways
-- **Security**: Payment gateways use encryption to protect sensitive information.
-- **Integration**: They can be seamlessly integrated with e-commerce platforms and point-of-sale systems.
-- **Support for Multiple Payment Methods**: A good payment gateway accommodates various payment methods, enhancing customer experience.
-## The Impact of Regulatory Changes
-### Understanding Regulatory Frameworks
-Regulations play a vital role in shaping payment systems. Governments worldwide are implementing frameworks to ensure consumer protection, enhance security, and promote competition.
-### Key Regulations to Watch
-- **GDPR**: The General Data Protection Regulation affects how companies manage customer data.
-- **PSD2**: The revised Payment Services Directive in Europe encourages innovation and competition in the payment space.
-## Future Trends in Payment Systems
-### The Rise of AI and Machine Learning
-Artificial intelligence is transforming payment systems by automating processes, detecting fraud, and personalizing user experiences. Machine learning algorithms analyze transaction data to predict trends and enhance security.
-### The Shift Toward Decentralization
-With the rise of blockchain technology, decentralized payment systems are gaining popularity. These systems offer transparency, lower fees, and reduced reliance on traditional banks.
+          <t>The Future of Finance: Blockchain, Cryptocurrency, and Digital Currency Insights</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Discover how blockchain, cryptocurrency, and digital currency are reshaping finance. Explore their impact and future potential in the evolving FinTech landscape.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The financial landscape is undergoing a significant transformation, driven by the rise of blockchain technology, cryptocurrency, and digital currencies. As these innovations reshape our understanding of money, investing, and transactions, grasping their interplay is essential for anyone in the FinTech space. Whether you’re an experienced investor or a curious newcomer, exploring these concepts can unlock opportunities that once seemed like science fiction.
+## Understanding Blockchain Technology
+### What is Blockchain?
+At its core, blockchain is a decentralized ledger technology that securely records transactions across multiple computers. This structure means that no single entity controls the data, making it resistant to tampering and fraud.
+### How Does Blockchain Work?
+- **Decentralization**: Unlike traditional databases, blockchain operates on a peer-to-peer network, allowing multiple participants to validate transactions.
+- **Transparency**: Each transaction is recorded in a block and linked to previous blocks, creating an immutable chain that anyone can audit.
+- **Security**: Advanced cryptographic techniques protect the data, ensuring that once a transaction is added, it cannot be altered without consensus from the network.
+## The Rise of Cryptocurrency
+### What is Cryptocurrency?
+Cryptocurrency refers to digital or virtual currencies that utilize cryptography for security. Unlike traditional currencies issued by governments, cryptocurrencies operate on decentralized networks built on blockchain technology.
+### Popular Cryptocurrencies
+- **Bitcoin (BTC)**: The first and most well-known cryptocurrency, often referred to as digital gold.
+- **Ethereum (ETH)**: Recognized for its smart contract functionality, enabling developers to build decentralized applications (dApps).
+- **Ripple (XRP)**: Focused on facilitating real-time cross-border payments, making it popular among financial institutions.
+## Digital Currency: The Next Evolution
+### Defining Digital Currency
+Digital currency includes all forms of money in digital format, encompassing cryptocurrencies and central bank digital currencies (CBDCs). While cryptocurrencies are decentralized, CBDCs are issued and regulated by governments.
+### The Future of Digital Currency
+- **Adoption of CBDCs**: Many countries are exploring or piloting CBDCs to enhance payment systems and provide a stable digital alternative to cryptocurrencies.
+- **Integration with Traditional Finance**: As digital currencies gain traction, they are increasingly being integrated into existing financial systems, creating new avenues for transactions and investment.
+## The Intersection of Blockchain, Cryptocurrency, and Digital Currency
+### How They Work Together
+- **Blockchain as the Backbone**: All cryptocurrencies operate on blockchain technology, which provides the framework for secure transactions.
+- **Digital Currencies Utilizing Blockchain**: CBDCs, while government-backed, often leverage blockchain to enhance security and efficiency.
+### Implications for the Financial Sector
+The convergence of these technologies heralds a new era for the financial industry, characterized by:
+- **Increased Efficiency**: Streamlining processes that traditionally required intermediaries.
+- **Cost Reduction**: Lower transaction fees and faster settlement times.
+- **Enhanced Security**: Reducing fraud and increasing trust in digital transactions.
 ## Conclusion
-The payments landscape is rapidly evolving, driven by technological advancements and regulatory changes. Understanding the various payment methods, the role of payment gateways, and emerging trends is essential for anyone involved in FinTech. As we move forward, staying informed about these developments will be crucial for leveraging opportunities in this dynamic sector.
+The interplay between blockchain, cryptocurrency, and digital currency is reshaping the financial landscape. Understanding these concepts is crucial for anyone looking to navigate the evolving world of FinTech. As we move forward, staying informed about these technologies will not only help you adapt but also position you for future opportunities.
 ### Actionable Takeaways
-- Familiarize yourself with different payment methods to better serve your customers.
-- Invest in reliable payment gateways that prioritize security and user experience.
-- Stay updated on regulatory changes that could impact your payment processes.
-- Explore emerging technologies like AI and blockchain to enhance your payment systems.
-### Call to Action
-Are you ready to optimize your payment solutions for the future? Subscribe to our newsletter for the latest insights and trends in FinTech, and join our community of innovators shaping the world of payments!</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>payments</t>
+- **Educate Yourself**: Stay informed about blockchain technology and its applications.
+- **Explore Cryptocurrency**: Consider investing in cryptocurrencies to diversify your portfolio.
+- **Follow CBDC Developments**: Keep an eye on your government’s stance on digital currencies and their potential impact.
+- **Network with Experts**: Engage with professionals in the FinTech space to share insights and strategies.
+- **Consider Security Measures**: Always prioritize security when dealing with digital currencies and cryptocurrencies.
+Are you ready to embrace the future of finance? Join our community of FinTech enthusiasts and stay updated on the latest trends and insights. Subscribe to our newsletter today!</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['blockchain', 'cryptocurrency', 'digital currency']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**Title:** Transforming Transactions: Key Trends in the Future of Payments
-**Meta Description:** Explore the future of payments with trends like digital wallets, blockchain, AI, and cryptocurrencies. Discover how these innovations are reshaping transactions today.
-The landscape of payments is evolving at an unprecedented pace, driven by technological advancements and shifting consumer preferences. As we move further into the digital age, the future of payments promises to be more efficient, secure, and user-friendly than ever before. But what does this mean for businesses and consumers alike? In this article, we will explore the key trends shaping the future of payments, how innovations in FinTech are redefining transactions, and what you can do to stay ahead in this rapidly changing environment.
-## The Rise of Digital Wallets
-### Convenience and Adoption Rates
-Digital wallets, such as Apple Pay, Google Pay, and various regional players, are becoming increasingly popular. These platforms allow users to store payment information securely and make transactions with just a tap or a click.
-- **User-Friendly Interfaces**: The intuitive design of digital wallets makes them accessible to a broader audience, including those who may not be tech-savvy.
-- **Growing Adoption**: According to recent studies, digital wallet usage has surged, with a significant portion of consumers preferring this method over traditional credit cards.
-### Security Enhancements
-Security remains a top concern for consumers when it comes to online transactions. Digital wallets are addressing these issues through advanced technologies:
-- **Encryption and Tokenization**: These methods protect sensitive information, ensuring that only authorized transactions occur.
-- **Biometric Authentication**: Features like fingerprint scanning and facial recognition add an extra layer of security, making digital wallets a safer option for many users.
-## The Impact of Blockchain Technology
-### Decentralization and Transparency
-Blockchain technology is revolutionizing the payment landscape by offering a decentralized approach to transactions. This shift has several implications:
-- **Reduced Costs**: By eliminating intermediaries, blockchain can significantly lower transaction fees, benefiting both businesses and consumers.
-- **Increased Transparency**: Every transaction is recorded on a public ledger, enhancing accountability and reducing fraud.
+          <t># Understanding Blockchain Services: How Blockchain Technology Works for Students</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Explore how blockchain technology works and its benefits in finance. Discover blockchain services for students and how blockchain work shapes future transactions.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>In the rapidly evolving world of finance, blockchain technology has emerged as a revolutionary force, reshaping how transactions are conducted and data is managed. As financial institutions and tech companies alike explore its potential, understanding the fundamentals of blockchain becomes essential. But how does blockchain technology work? What are its benefits in the finance sector? And what exactly is blockchain in FinTech? This article will delve into these questions, providing you with a comprehensive overview of blockchain's role in finance.
+## What Is Blockchain in Finance?
+Blockchain is a decentralized digital ledger technology that records transactions across multiple computers, ensuring the security and transparency of data. Unlike traditional ledgers maintained by a central authority, blockchain operates through a network of nodes. Each node holds a copy of the entire ledger, making it nearly impossible to alter past records. This decentralized nature enhances trust and security, which is critical for blockchain services in the financial sector.
+### Key Characteristics of Blockchain
+- **Decentralization**: No single entity controls the entire network, reducing the risk of fraud.
+- **Transparency**: All transactions are visible to participants, fostering trust.
+- **Immutability**: Once recorded, data cannot be altered without consensus from the network.
+Understanding these characteristics is crucial for grasping how blockchain technology can transform financial processes and how blockchain work can be applied effectively.
+## How Does Blockchain Technology Work?
+At its core, blockchain technology works by creating blocks of data that are chained together in chronological order. Each block contains a list of transactions, a timestamp, and a cryptographic hash of the previous block. This structure ensures that all blocks are interlinked, creating a secure and unchangeable record of transactions.
+### The Process of Blockchain Transactions
+1. **Transaction Initiation**: A user initiates a transaction, which is then broadcast to the network.
+2. **Validation**: Nodes in the network verify the transaction using consensus algorithms, such as Proof of Work or Proof of Stake.
+3. **Block Creation**: Once validated, the transaction is grouped with others into a new block.
+4. **Chain Update**: The new block is added to the existing blockchain, and all nodes update their copies of the ledger.
+This process not only enhances security but also increases efficiency, reducing the time and cost associated with traditional financial transactions. For blockchain students, understanding this process is vital for future work in the industry.
+## Benefits of Blockchain in Finance
+The adoption of blockchain technology in finance brings a plethora of benefits that can revolutionize the industry. Here are some of the most significant advantages:
+### Enhanced Security
+Blockchain’s cryptographic techniques make it highly secure against hacking and fraud. Each transaction is encrypted and linked to the previous one, creating a robust security framework that is essential for blockchain services.
+### Reduced Costs
+By eliminating intermediaries, such as banks and payment processors, blockchain can significantly lower transaction costs. This is particularly beneficial for cross-border payments, where fees can be exorbitant.
+### Increased Efficiency
+Traditional financial systems often involve lengthy processes and paperwork. Blockchain streamlines these processes, allowing for faster transactions and settlements. This efficiency is critical for those involved in blockchain work.
+### Improved Transparency
+With all transactions recorded on a public ledger, stakeholders can easily access transaction histories, promoting accountability and trust.
+### Financial Inclusion
+Blockchain technology can provide access to financial services for unbanked populations, enabling them to participate in the global economy. This aspect is especially important for blockchain students interested in social impact.
+## Real-World Applications of Blockchain in Finance
+Several financial institutions and companies are already leveraging blockchain technology to enhance their operations. Here are a few notable examples:
+### Cryptocurrencies
+Digital currencies like Bitcoin and Ethereum are built on blockchain technology, providing a decentralized alternative to traditional currencies.
 ### Smart Contracts
-The integration of smart contracts—self-executing contracts with the terms of the agreement directly written into code—can streamline payment processes.
-- **Automation**: Smart contracts automate transactions, reducing the need for manual intervention and minimizing human error.
-- **Trustless Transactions**: With smart contracts, parties can transact without needing to trust one another, as the contract enforces compliance.
-## The Role of Artificial Intelligence
-### Personalized Customer Experiences
-Artificial Intelligence (AI) is transforming the payment experience by enabling personalized interactions.
-- **Data Analysis**: AI can analyze consumer behavior and preferences, allowing businesses to tailor their offerings and improve customer satisfaction.
-- **Fraud Detection**: Machine learning algorithms can identify unusual patterns in transactions, helping to prevent fraudulent activities in real-time.
-### Chatbots and Customer Service
-AI-powered chatbots are enhancing customer service in the payments sector:
-- **24/7 Availability**: Chatbots can assist customers with inquiries at any time, improving overall service quality.
-- **Efficiency**: By handling routine queries, chatbots free up human agents to focus on more complex issues.
-## The Emergence of Cryptocurrencies
-### Mainstream Acceptance
-Cryptocurrencies, once considered a niche market, are gaining traction among mainstream consumers and businesses.
-- **Payment Options**: More merchants are beginning to accept cryptocurrencies, expanding payment choices for consumers.
-- **Volatility Management**: As cryptocurrencies stabilize, they are becoming more viable for everyday transactions.
-### Regulatory Landscape
-As cryptocurrencies become more popular, regulatory bodies are stepping in to provide guidelines:
-- **Compliance**: Businesses must navigate a complex regulatory environment to ensure they are compliant while accepting cryptocurrencies.
-- **Consumer Protection**: Regulations will help protect consumers from fraud and ensure that their transactions are secure.
+These self-executing contracts automatically enforce and execute terms when conditions are met, reducing the need for intermediaries.
+### Supply Chain Finance
+Blockchain can enhance transparency and traceability in supply chains, improving financing processes for businesses.
 ## Conclusion
-The future of payments is being shaped by innovative technologies such as digital wallets, blockchain, AI, and cryptocurrencies. As these trends continue to evolve, businesses and consumers must adapt to stay relevant in this dynamic landscape. Embracing these advancements will not only enhance transaction efficiency but also improve security and customer satisfaction.
+In summary, blockchain technology is reshaping the financial landscape by providing a secure, efficient, and transparent method for conducting transactions. Its decentralized nature, combined with its numerous benefits, makes it a game-changer in the FinTech space. As more organizations adopt this technology, understanding its workings and advantages will be crucial for anyone involved in finance.
 ### Actionable Takeaways
-- **Explore Digital Wallets**: Consider integrating digital wallet options into your payment systems to enhance customer convenience.
-- **Invest in Blockchain**: Investigate how blockchain can reduce costs and improve transaction transparency for your business.
-- **Leverage AI**: Utilize AI tools for data analysis and fraud detection to personalize customer experiences and enhance security.
-- **Stay Informed on Cryptocurrencies**: Keep an eye on the regulatory landscape and consider offering cryptocurrency payment options as they gain acceptance.
-- **Prioritize Security**: Ensure that your payment systems incorporate the latest security measures to protect consumer data.
-As we navigate this exciting future, staying informed and adaptable will be key to thriving in the payments landscape. If you’re ready to take your payment solutions to the next level, reach out to us today for expert guidance and innovative solutions tailored to your business needs!</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>future of payments</t>
+- **Learn the Basics**: Familiarize yourself with blockchain terminology and concepts.
+- **Explore Use Cases**: Research how different sectors are implementing blockchain technology.
+- **Stay Informed**: Follow industry news and developments related to blockchain and FinTech.
+- **Consider Integration**: If you’re in finance, explore how your organization can leverage blockchain for efficiency and security.
+- **Engage with Experts**: Attend webinars and discussions to deepen your understanding of blockchain applications.
+Are you ready to embrace the future of finance? Start exploring blockchain technology today and see how it can transform your business operations. Whether you're a seasoned professional or just starting, the potential of blockchain in finance is too significant to ignore. Join the conversation in the comments below or share your thoughts on how blockchain can shape the future.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['blockchain services', 'blockchain work', 'blockchain students']</t>
         </is>
       </c>
     </row>
